--- a/URL ref.xlsx
+++ b/URL ref.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\desktop sept 2022\Wave25\HTML5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Mywebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A305B2A-5EBF-477B-BBEB-D0D5E4937311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2454DF0-077C-4829-893E-485782A4F436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="7" xr2:uid="{E8AE503F-A272-4ABA-83A0-3DADF638C384}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{E8AE503F-A272-4ABA-83A0-3DADF638C384}"/>
   </bookViews>
   <sheets>
     <sheet name="BootStrap" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>https://getbootstrap.com/</t>
   </si>
@@ -262,13 +262,7 @@
     <t>https://history-computer.com/the-world-wide-web-of-tim-berners-lee/</t>
   </si>
   <si>
-    <t>https://web-platform-tests.org/</t>
-  </si>
-  <si>
     <t>https://medium.com/any-writers/how-to-host-a-static-website-on-github-for-free-f47b12790775</t>
-  </si>
-  <si>
-    <t>https://medium.com/@agavitalis/how-to-deploy-a-simple-static-html-website-on-heroku-492697238e48</t>
   </si>
   <si>
     <t>https://www.w3schools.com/html/html_entities.asp</t>
@@ -648,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C5536E-F583-4D62-A640-CAD18CFE4BF2}">
   <dimension ref="C4:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -988,7 +982,7 @@
     </row>
     <row r="16" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -1008,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85074E0D-00DB-47F8-A1EB-04B3044C1373}">
-  <dimension ref="C4:C35"/>
+  <dimension ref="C4:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,37 +1140,27 @@
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A0D647-990D-4E48-9897-06E407BF10D0}">
   <dimension ref="D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -1196,7 +1180,7 @@
   <sheetData>
     <row r="5" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/URL ref.xlsx
+++ b/URL ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Mywebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2454DF0-077C-4829-893E-485782A4F436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21092C85-4674-40BA-93CA-07429DD4BF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{E8AE503F-A272-4ABA-83A0-3DADF638C384}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{E8AE503F-A272-4ABA-83A0-3DADF638C384}"/>
   </bookViews>
   <sheets>
     <sheet name="BootStrap" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C5536E-F583-4D62-A640-CAD18CFE4BF2}">
   <dimension ref="C4:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B56A87-FB1B-4129-AD77-C0995BBF9522}">
   <dimension ref="C4:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,6 +769,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
